--- a/train_data/TVS_Scan.xlsx
+++ b/train_data/TVS_Scan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Music\New folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\malaysia\Fertilemate\train_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1CE0C8C-69AF-4AA3-9C07-965485DC03E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303C845-09E2-4BF4-8490-5EC5738CEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -228,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +316,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -661,11 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -690,7 +679,7 @@
     <col min="22" max="22" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -758,7 +747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -826,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -882,7 +871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -950,7 +939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -1018,7 +1007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1086,7 +1075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
